--- a/data/trans_orig/PER_TRAFICO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Andalucia</t>
+          <t>Percepción de trafico intenso en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4436,7 +4436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en C.Valenciana</t>
+          <t>Percepción de trafico intenso en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8327,7 +8327,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de trafico intenso en Barcelona</t>
+          <t>Percepción de trafico intenso en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_TRAFICO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_TRAFICO-Edad-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>146419</t>
+          <t>147048</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>194090</t>
+          <t>193298</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>90960</t>
+          <t>91488</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>128710</t>
+          <t>127834</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>253277</t>
+          <t>251506</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>313149</t>
+          <t>312992</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>74,45%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25626</t>
+          <t>25172</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65412</t>
+          <t>65339</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30728</t>
+          <t>30604</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62669</t>
+          <t>61731</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>62807</t>
+          <t>62946</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>111934</t>
+          <t>115856</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>27,56%</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9323</t>
+          <t>10299</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42052</t>
+          <t>42055</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17485</t>
+          <t>16943</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47250</t>
+          <t>44422</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>33810</t>
+          <t>33633</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>78054</t>
+          <t>79311</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,86%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>139874</t>
+          <t>139794</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>176797</t>
+          <t>176609</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>200390</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>272738</t>
+          <t>273639</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>63,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>356521</t>
+          <t>354462</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>444421</t>
+          <t>444767</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>81,79%</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29707</t>
+          <t>29787</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60969</t>
+          <t>61955</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26411</t>
+          <t>25113</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75426</t>
+          <t>76249</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>65097</t>
+          <t>62660</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>126561</t>
+          <t>126670</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14961</t>
+          <t>15903</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41575</t>
+          <t>42331</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12960</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44692</t>
+          <t>44146</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1472,47 +1472,47 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>55076</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>33098</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>77272</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
           <t>14,21%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>55076</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>34465</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>74988</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>193003</t>
+          <t>195223</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>229187</t>
+          <t>228097</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>197847</t>
+          <t>197080</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>224140</t>
+          <t>226737</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>69,63%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>399644</t>
+          <t>400915</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>443925</t>
+          <t>443358</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>70,32%</t>
+          <t>70,23%</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38719</t>
+          <t>38711</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68033</t>
+          <t>67788</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,77 +1785,77 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67993</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55949</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>81194</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>120037</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>103756</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>138816</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
           <t>21,99%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>67993</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>56825</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>79069</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>21,12%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>17,65%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>24,56%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>120037</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>102750</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>138408</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>19,01%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>16,28%</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35110</t>
+          <t>34103</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63132</t>
+          <t>60823</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33498</t>
+          <t>32786</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>52660</t>
+          <t>53416</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>74261</t>
+          <t>75073</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>106206</t>
+          <t>106658</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,89%</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>383907</t>
+          <t>384887</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>575130</t>
+          <t>572049</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>253729</t>
+          <t>252234</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>284589</t>
+          <t>282615</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>658944</t>
+          <t>658722</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>889577</t>
+          <t>894734</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>86,72%</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30970</t>
+          <t>32258</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>148212</t>
+          <t>146569</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>68735</t>
+          <t>68732</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>94774</t>
+          <t>95160</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>82637</t>
+          <t>81679</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>225221</t>
+          <t>225789</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,88%</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19049</t>
+          <t>18708</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100042</t>
+          <t>100859</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>44891</t>
+          <t>43582</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>67421</t>
+          <t>66929</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>55187</t>
+          <t>54691</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>153769</t>
+          <t>153323</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>215937</t>
+          <t>216673</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>248897</t>
+          <t>248002</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>201324</t>
+          <t>200853</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>227193</t>
+          <t>226885</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>424464</t>
+          <t>425715</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>467756</t>
+          <t>466660</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>64,3%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>70,49%</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2677,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55585</t>
+          <t>56406</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>82627</t>
+          <t>84644</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>49515</t>
+          <t>48952</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>70003</t>
+          <t>70612</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>110668</t>
+          <t>110330</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>147831</t>
+          <t>144180</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28818</t>
+          <t>29240</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>50567</t>
+          <t>51719</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2825,12 +2825,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39109</t>
+          <t>39256</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>58056</t>
+          <t>58173</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2840,12 +2840,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2860,12 +2860,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>72812</t>
+          <t>73809</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>101491</t>
+          <t>101221</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2875,12 +2875,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>128798</t>
+          <t>128172</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>150490</t>
+          <t>151196</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>61,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>314131</t>
+          <t>314262</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>427190</t>
+          <t>433321</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3070,12 +3070,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>449410</t>
+          <t>450656</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>601071</t>
+          <t>606525</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3105,12 +3105,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>91,8%</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35929</t>
+          <t>34972</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>54448</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3168,12 +3168,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>15735</t>
+          <t>11865</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>92953</t>
+          <t>93218</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>40706</t>
+          <t>36684</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>139050</t>
+          <t>139354</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>17232</t>
+          <t>17610</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>31519</t>
+          <t>31942</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3281,12 +3281,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8937</t>
+          <t>7002</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>48519</t>
+          <t>48159</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>18846</t>
+          <t>19662</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>76279</t>
+          <t>76139</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,52%</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>83797</t>
+          <t>83686</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>103152</t>
+          <t>102368</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>142594</t>
+          <t>142663</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>164205</t>
+          <t>164550</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>60,89%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>235105</t>
+          <t>232843</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>261684</t>
+          <t>262767</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>68,08%</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>36450</t>
+          <t>36474</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>53515</t>
+          <t>53844</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>41424</t>
+          <t>41051</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>59419</t>
+          <t>59560</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>82696</t>
+          <t>81923</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>106612</t>
+          <t>107115</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8323</t>
+          <t>8685</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19699</t>
+          <t>19775</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3717,12 +3717,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>23640</t>
+          <t>23208</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>39060</t>
+          <t>38303</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>34934</t>
+          <t>34619</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>54174</t>
+          <t>53886</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -3932,12 +3932,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1396337</t>
+          <t>1401717</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1724734</t>
+          <t>1709978</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>66,68%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1481563</t>
+          <t>1483299</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1773755</t>
+          <t>1753799</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3982,12 +3982,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -4002,12 +4002,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>2915530</t>
+          <t>2912800</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3347348</t>
+          <t>3322195</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>76,62%</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>245357</t>
+          <t>239814</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>447000</t>
+          <t>443510</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>290926</t>
+          <t>296741</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>467243</t>
+          <t>462270</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>619160</t>
+          <t>621186</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>887154</t>
+          <t>888273</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4130,12 +4130,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,49%</t>
         </is>
       </c>
     </row>
@@ -4158,12 +4158,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>151443</t>
+          <t>154811</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>275742</t>
+          <t>274242</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>188878</t>
+          <t>192717</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>298955</t>
+          <t>299105</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>376097</t>
+          <t>390347</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>552062</t>
+          <t>557122</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -8522,12 +8522,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22576</t>
+          <t>22518</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33944</t>
+          <t>34100</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8557,12 +8557,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18581</t>
+          <t>19221</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29549</t>
+          <t>29809</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8572,12 +8572,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8592,12 +8592,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>44066</t>
+          <t>45117</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>60423</t>
+          <t>61003</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8607,12 +8607,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>48,45%</t>
         </is>
       </c>
     </row>
@@ -8635,12 +8635,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9202</t>
+          <t>8683</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18129</t>
+          <t>17568</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8650,12 +8650,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5445</t>
+          <t>5495</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12589</t>
+          <t>12632</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>16382</t>
+          <t>16093</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>27781</t>
+          <t>27574</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -8748,12 +8748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18300</t>
+          <t>17958</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29052</t>
+          <t>29486</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8783,12 +8783,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23201</t>
+          <t>23195</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34065</t>
+          <t>34409</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>44762</t>
+          <t>44931</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>59779</t>
+          <t>60105</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>47,73%</t>
         </is>
       </c>
     </row>
@@ -8978,12 +8978,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29156</t>
+          <t>29810</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43877</t>
+          <t>44680</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8993,12 +8993,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9013,12 +9013,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33436</t>
+          <t>33676</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>49851</t>
+          <t>49978</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>67568</t>
+          <t>67315</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>88750</t>
+          <t>88428</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -9091,12 +9091,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11412</t>
+          <t>11533</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22703</t>
+          <t>22724</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9106,12 +9106,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -9126,12 +9126,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12930</t>
+          <t>13359</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24987</t>
+          <t>24832</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>25877</t>
+          <t>26935</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>43098</t>
+          <t>43624</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -9204,12 +9204,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62644</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79047</t>
+          <t>78376</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9239,12 +9239,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60264</t>
+          <t>60091</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>77137</t>
+          <t>76589</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9274,12 +9274,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>127420</t>
+          <t>127913</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>151053</t>
+          <t>151433</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9289,12 +9289,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>60,26%</t>
         </is>
       </c>
     </row>
@@ -9434,12 +9434,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36801</t>
+          <t>36699</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54458</t>
+          <t>53914</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9449,47 +9449,47 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42008</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34252</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50100</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32,67%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>26,63%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>39,4%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>42008</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>35004</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>51332</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>32,67%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>27,22%</t>
-        </is>
-      </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>75054</t>
+          <t>75868</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>98803</t>
+          <t>100331</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>37,6%</t>
         </is>
       </c>
     </row>
@@ -9547,12 +9547,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12729</t>
+          <t>12609</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26856</t>
+          <t>26443</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9562,12 +9562,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9582,12 +9582,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8570</t>
+          <t>8703</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17879</t>
+          <t>18217</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9597,12 +9597,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9617,12 +9617,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24312</t>
+          <t>23807</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>41768</t>
+          <t>39632</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -9660,12 +9660,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66164</t>
+          <t>66411</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>84308</t>
+          <t>84164</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9675,12 +9675,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9695,12 +9695,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65187</t>
+          <t>65639</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>81782</t>
+          <t>82702</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9710,12 +9710,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9730,12 +9730,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>136974</t>
+          <t>135663</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>161885</t>
+          <t>161415</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>60,5%</t>
         </is>
       </c>
     </row>
@@ -9890,12 +9890,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29926</t>
+          <t>30188</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44749</t>
+          <t>44946</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9905,12 +9905,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9925,12 +9925,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30714</t>
+          <t>30837</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>46083</t>
+          <t>46060</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9940,12 +9940,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9960,12 +9960,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>65364</t>
+          <t>64086</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>86703</t>
+          <t>85943</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>36,24%</t>
         </is>
       </c>
     </row>
@@ -10003,12 +10003,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10933</t>
+          <t>11175</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21786</t>
+          <t>22206</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10018,12 +10018,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10038,12 +10038,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10157</t>
+          <t>10306</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>20929</t>
+          <t>20548</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10053,12 +10053,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10073,12 +10073,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>23425</t>
+          <t>23957</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>38369</t>
+          <t>38943</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10088,12 +10088,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,42%</t>
         </is>
       </c>
     </row>
@@ -10116,12 +10116,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57033</t>
+          <t>56406</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73121</t>
+          <t>73304</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>62,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -10151,12 +10151,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>59503</t>
+          <t>58425</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>75958</t>
+          <t>74792</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10166,12 +10166,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -10186,12 +10186,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>120878</t>
+          <t>120045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>142959</t>
+          <t>143417</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10201,12 +10201,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>50,61%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>60,47%</t>
         </is>
       </c>
     </row>
@@ -10346,12 +10346,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24159</t>
+          <t>23846</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39161</t>
+          <t>39712</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10361,12 +10361,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>27101</t>
+          <t>26444</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40489</t>
+          <t>40204</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10396,12 +10396,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10416,12 +10416,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>54890</t>
+          <t>54747</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>75876</t>
+          <t>74775</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10431,12 +10431,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6266</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17658</t>
+          <t>19136</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10474,12 +10474,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10494,12 +10494,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>15907</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10509,12 +10509,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10529,12 +10529,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>15236</t>
+          <t>15188</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>30621</t>
+          <t>31267</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10544,12 +10544,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -10572,12 +10572,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48389</t>
+          <t>47805</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64684</t>
+          <t>64557</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10587,12 +10587,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10607,12 +10607,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>64155</t>
+          <t>64225</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>78251</t>
+          <t>77820</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10622,12 +10622,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>116293</t>
+          <t>115975</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>137619</t>
+          <t>137816</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10657,12 +10657,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>64,68%</t>
         </is>
       </c>
     </row>
@@ -10802,12 +10802,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17858</t>
+          <t>17793</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>29400</t>
+          <t>29511</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10817,12 +10817,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15382</t>
+          <t>16105</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29125</t>
+          <t>29784</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -10872,12 +10872,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>36623</t>
+          <t>36862</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>55371</t>
+          <t>54439</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -10887,12 +10887,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>34,62%</t>
         </is>
       </c>
     </row>
@@ -10915,12 +10915,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10974</t>
+          <t>10243</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -10930,12 +10930,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -10950,12 +10950,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>15014</t>
+          <t>14957</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -10965,12 +10965,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -10985,12 +10985,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>9225</t>
+          <t>9860</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>22087</t>
+          <t>21861</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -11028,12 +11028,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33938</t>
+          <t>34299</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>45954</t>
+          <t>46357</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -11043,12 +11043,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -11063,12 +11063,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>49386</t>
+          <t>49210</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>63903</t>
+          <t>63380</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -11078,12 +11078,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -11098,12 +11098,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>87992</t>
+          <t>88092</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>106452</t>
+          <t>106331</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -11113,12 +11113,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>67,62%</t>
         </is>
       </c>
     </row>
@@ -11258,12 +11258,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>13304</t>
+          <t>12934</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>23228</t>
+          <t>22964</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -11273,12 +11273,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -11293,12 +11293,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>22904</t>
+          <t>22653</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>36837</t>
+          <t>37069</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -11308,12 +11308,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -11328,12 +11328,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>38871</t>
+          <t>39043</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>56989</t>
+          <t>56439</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -11343,12 +11343,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>31,49%</t>
         </is>
       </c>
     </row>
@@ -11371,12 +11371,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11811</t>
+          <t>12976</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -11386,12 +11386,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -11406,12 +11406,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>7934</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>18233</t>
+          <t>18987</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -11421,12 +11421,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -11441,12 +11441,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>13871</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>27186</t>
+          <t>26973</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -11456,12 +11456,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,05%</t>
         </is>
       </c>
     </row>
@@ -11484,12 +11484,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>37512</t>
+          <t>37167</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>48605</t>
+          <t>48701</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -11499,12 +11499,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -11519,12 +11519,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>61500</t>
+          <t>61231</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>76488</t>
+          <t>76861</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -11554,12 +11554,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>103018</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>121565</t>
+          <t>122655</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>68,44%</t>
         </is>
       </c>
     </row>
@@ -11714,12 +11714,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>200758</t>
+          <t>201439</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>237968</t>
+          <t>239619</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -11729,12 +11729,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -11749,12 +11749,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>212331</t>
+          <t>211961</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>250922</t>
+          <t>250086</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -11764,12 +11764,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -11784,12 +11784,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>424685</t>
+          <t>421857</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>475666</t>
+          <t>476623</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -11799,12 +11799,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>33,31%</t>
         </is>
       </c>
     </row>
@@ -11827,12 +11827,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>74236</t>
+          <t>72193</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>102732</t>
+          <t>99321</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -11842,12 +11842,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -11862,12 +11862,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>74074</t>
+          <t>74132</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>100682</t>
+          <t>99904</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -11877,12 +11877,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -11897,12 +11897,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>155606</t>
+          <t>154709</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>193408</t>
+          <t>192572</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -11912,12 +11912,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -11940,12 +11940,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>353704</t>
+          <t>352759</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>393604</t>
+          <t>394579</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -11955,12 +11955,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -11975,12 +11975,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>415531</t>
+          <t>415267</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>455368</t>
+          <t>455370</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>55,27%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -12010,12 +12010,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>782631</t>
+          <t>782022</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>837094</t>
+          <t>837716</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -12025,12 +12025,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>58,55%</t>
         </is>
       </c>
     </row>
